--- a/level-2/atcoder/phase-2-2/atcoder-phase-2-2.xlsx
+++ b/level-2/atcoder/phase-2-2/atcoder-phase-2-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F5995-0592-4EAA-820E-DC9F47AA0959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A612EAE-3D74-4863-A2A6-C3B57E34581C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atcoder level 2.2" sheetId="1" r:id="rId1"/>
@@ -307,277 +307,277 @@
     <t>AtCoder Beginner Contest 230</t>
   </si>
   <si>
+    <t>https://atcoder.jp/contests/abc064/tasks/abc064_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc065/tasks/abc065_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc066/tasks/abc066_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc067/tasks/abc067_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc068/tasks/abc068_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc069/tasks/abc069_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc070/tasks/abc070_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc071/tasks/abc071_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc072/tasks/abc072_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc073/tasks/abc073_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc074/tasks/abc074_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc075/tasks/abc075_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc076/tasks/abc076_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc077/tasks/abc077_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc078/tasks/abc078_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc079/tasks/abc079_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc080/tasks/abc080_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc081/tasks/abc081_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc082/tasks/abc082_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc083/tasks/abc083_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc084/tasks/abc084_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc117/tasks/abc117_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc118/tasks/abc118_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc119/tasks/abc119_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc120/tasks/abc120_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc121/tasks/abc121_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc122/tasks/abc122_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc123/tasks/abc123_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc124/tasks/abc124_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc125/tasks/abc125_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc126/tasks/abc126_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc127/tasks/abc127_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc128/tasks/abc128_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc129/tasks/abc129_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc130/tasks/abc130_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc131/tasks/abc131_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc132/tasks/abc132_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc133/tasks/abc133_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc134/tasks/abc134_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc135/tasks/abc135_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc136/tasks/abc136_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc137/tasks/abc137_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc138/tasks/abc138_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc139/tasks/abc139_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc140/tasks/abc140_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc141/tasks/abc141_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc142/tasks/abc142_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc143/tasks/abc143_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc144/tasks/abc144_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc145/tasks/abc145_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc146/tasks/abc146_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc147/tasks/abc147_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc148/tasks/abc148_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc149/tasks/abc149_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc187/tasks/abc187_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc188/tasks/abc188_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc189/tasks/abc189_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc190/tasks/abc190_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc191/tasks/abc191_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc192/tasks/abc192_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc194/tasks/abc194_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc196/tasks/abc196_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc197/tasks/abc197_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc198/tasks/abc198_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc199/tasks/abc199_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc203/tasks/abc203_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc204/tasks/abc204_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc205/tasks/abc205_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc206/tasks/abc206_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc207/tasks/abc207_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc208/tasks/abc208_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc209/tasks/abc209_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc210/tasks/abc210_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc211/tasks/abc211_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc212/tasks/abc212_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc213/tasks/abc213_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc214/tasks/abc214_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc215/tasks/abc215_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc216/tasks/abc216_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc217/tasks/abc217_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc218/tasks/abc218_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc220/tasks/abc220_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc221/tasks/abc221_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc223/tasks/abc223_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc224/tasks/abc224_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc226/tasks/abc226_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc230/tasks/abc230_a</t>
+  </si>
+  <si>
     <t>AtCoder Beginner Contest 233</t>
   </si>
   <si>
+    <t>https://atcoder.jp/contests/abc233/tasks/abc233_a</t>
+  </si>
+  <si>
     <t>AtCoder Beginner Contest 234</t>
   </si>
   <si>
-    <t>https://atcoder.jp/contests/abc064/tasks/abc064_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc065/tasks/abc065_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc066/tasks/abc066_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc067/tasks/abc067_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc068/tasks/abc068_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc069/tasks/abc069_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc070/tasks/abc070_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc071/tasks/abc071_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc072/tasks/abc072_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc073/tasks/abc073_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc074/tasks/abc074_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc075/tasks/abc075_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc076/tasks/abc076_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc077/tasks/abc077_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc078/tasks/abc078_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc079/tasks/abc079_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc080/tasks/abc080_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc081/tasks/abc081_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc082/tasks/abc082_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc083/tasks/abc083_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc084/tasks/abc084_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc117/tasks/abc117_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc118/tasks/abc118_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc119/tasks/abc119_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc120/tasks/abc120_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc121/tasks/abc121_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc122/tasks/abc122_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc123/tasks/abc123_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc124/tasks/abc124_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc125/tasks/abc125_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc126/tasks/abc126_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc127/tasks/abc127_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc128/tasks/abc128_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc129/tasks/abc129_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc130/tasks/abc130_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc131/tasks/abc131_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc132/tasks/abc132_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc133/tasks/abc133_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc134/tasks/abc134_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc135/tasks/abc135_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc136/tasks/abc136_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc137/tasks/abc137_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc138/tasks/abc138_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc139/tasks/abc139_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc140/tasks/abc140_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc141/tasks/abc141_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc142/tasks/abc142_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc143/tasks/abc143_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc144/tasks/abc144_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc145/tasks/abc145_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc146/tasks/abc146_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc147/tasks/abc147_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc148/tasks/abc148_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc149/tasks/abc149_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc187/tasks/abc187_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc188/tasks/abc188_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc189/tasks/abc189_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc190/tasks/abc190_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc191/tasks/abc191_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc192/tasks/abc192_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc194/tasks/abc194_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc196/tasks/abc196_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc197/tasks/abc197_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc198/tasks/abc198_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc199/tasks/abc199_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc203/tasks/abc203_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc204/tasks/abc204_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc205/tasks/abc205_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc206/tasks/abc206_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc207/tasks/abc207_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc208/tasks/abc208_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc209/tasks/abc209_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc210/tasks/abc210_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc211/tasks/abc211_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc212/tasks/abc212_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc213/tasks/abc213_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc214/tasks/abc214_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc215/tasks/abc215_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc216/tasks/abc216_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc217/tasks/abc217_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc218/tasks/abc218_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc220/tasks/abc220_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc221/tasks/abc221_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc223/tasks/abc223_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc224/tasks/abc224_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc226/tasks/abc226_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc230/tasks/abc230_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc233/tasks/abc233_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc234/tasks/abc234_b</t>
+    <t>https://atcoder.jp/contests/abc234/tasks/abc234_a</t>
   </si>
 </sst>
 </file>
@@ -779,49 +779,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <fill>
         <patternFill>
@@ -1616,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1633,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1650,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1667,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1684,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1701,7 +1659,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1718,7 +1676,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1735,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1752,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1769,7 +1727,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1786,7 +1744,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1803,7 +1761,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1820,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1837,7 +1795,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1854,7 +1812,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1871,7 +1829,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1888,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1905,7 +1863,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1922,7 +1880,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1939,7 +1897,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1956,7 +1914,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1973,7 +1931,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1990,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2007,7 +1965,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -2024,7 +1982,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2041,7 +1999,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2058,7 +2016,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2075,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2092,7 +2050,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2109,7 +2067,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2126,7 +2084,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2143,7 +2101,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -2160,7 +2118,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2177,7 +2135,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2194,7 +2152,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2211,7 +2169,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2228,7 +2186,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2245,7 +2203,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2262,7 +2220,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2279,7 +2237,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -2296,7 +2254,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -2313,7 +2271,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -2330,7 +2288,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" ref="H45:H72" si="4">SUM(C45:G45)</f>
@@ -2342,7 +2300,7 @@
         <v>51</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="4"/>
@@ -2354,7 +2312,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="4"/>
@@ -2366,7 +2324,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="4"/>
@@ -2378,7 +2336,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="4"/>
@@ -2389,8 +2347,8 @@
       <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>144</v>
+      <c r="B50" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2407,7 +2365,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2424,7 +2382,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2441,7 +2399,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2458,7 +2416,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2475,7 +2433,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2492,7 +2450,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2509,7 +2467,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2526,7 +2484,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -2543,7 +2501,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2560,7 +2518,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2577,7 +2535,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -2594,7 +2552,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -2611,7 +2569,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2628,7 +2586,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -2645,7 +2603,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -2662,7 +2620,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -2679,7 +2637,7 @@
         <v>72</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2696,7 +2654,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2713,7 +2671,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2730,7 +2688,7 @@
         <v>75</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2747,7 +2705,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2764,7 +2722,7 @@
         <v>77</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2781,7 +2739,7 @@
         <v>78</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -2798,7 +2756,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2815,7 +2773,7 @@
         <v>80</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -2832,7 +2790,7 @@
         <v>81</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -2849,7 +2807,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -2866,7 +2824,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -2883,7 +2841,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2900,7 +2858,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -2917,7 +2875,7 @@
         <v>86</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -2934,7 +2892,7 @@
         <v>87</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2951,7 +2909,7 @@
         <v>88</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2968,7 +2926,7 @@
         <v>89</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -2985,7 +2943,7 @@
         <v>90</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -3002,7 +2960,7 @@
         <v>91</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -3019,7 +2977,7 @@
         <v>92</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -3036,7 +2994,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -3053,7 +3011,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -3067,10 +3025,10 @@
     </row>
     <row r="90" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -3084,7 +3042,7 @@
     </row>
     <row r="91" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>185</v>
@@ -3278,299 +3236,325 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B1 A3:A12 B3:B23 A24:B28 B57:B79">
-    <cfRule type="cellIs" dxfId="68" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="235" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A72">
-    <cfRule type="cellIs" dxfId="67" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A72">
-    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="81" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:A89">
+    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A36">
-    <cfRule type="cellIs" dxfId="64" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A1048576">
-    <cfRule type="cellIs" dxfId="63" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A23">
-    <cfRule type="cellIs" dxfId="62" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="61" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="119" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A12">
-    <cfRule type="cellIs" dxfId="60" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A12">
-    <cfRule type="cellIs" dxfId="59" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="113" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A23">
-    <cfRule type="cellIs" dxfId="58" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A20">
-    <cfRule type="cellIs" dxfId="57" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A28">
-    <cfRule type="cellIs" dxfId="56" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A44">
-    <cfRule type="cellIs" dxfId="55" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="cellIs" dxfId="54" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A44">
-    <cfRule type="cellIs" dxfId="53" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A56">
-    <cfRule type="cellIs" dxfId="52" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="96" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A52">
-    <cfRule type="cellIs" dxfId="51" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A56">
-    <cfRule type="cellIs" dxfId="50" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A72">
-    <cfRule type="cellIs" dxfId="49" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A64">
-    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A79">
-    <cfRule type="cellIs" dxfId="47" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A79">
-    <cfRule type="cellIs" dxfId="46" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A104">
-    <cfRule type="cellIs" dxfId="45" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A104">
-    <cfRule type="cellIs" dxfId="44" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A104">
-    <cfRule type="cellIs" dxfId="43" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A96">
-    <cfRule type="cellIs" dxfId="42" priority="81" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B56 B5:B13 B15:B23">
-    <cfRule type="cellIs" dxfId="40" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="75" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:A89">
+    <cfRule type="cellIs" dxfId="35" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B56 B5:B13 B15:B23 B80:B89">
+    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:B89">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A91">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91:B92">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A91">
+  <conditionalFormatting sqref="B91:B92">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B91">
+  <conditionalFormatting sqref="A90">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B91">
+  <conditionalFormatting sqref="B90">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" xr:uid="{870DACC3-E869-4122-B1D3-516AE1147BCB}"/>
+    <hyperlink ref="B91" r:id="rId1" xr:uid="{66F78A56-B54B-4433-8E80-FC5939FB890D}"/>
+    <hyperlink ref="B90" r:id="rId2" xr:uid="{C3598CEF-4A15-4E42-9F17-40951A2EFB57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/level-2/atcoder/phase-2-2/atcoder-phase-2-2.xlsx
+++ b/level-2/atcoder/phase-2-2/atcoder-phase-2-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A612EAE-3D74-4863-A2A6-C3B57E34581C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3AB12-B66F-4D04-B2BC-FF8A044073DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="275">
   <si>
     <t>Contest Link</t>
   </si>
@@ -578,6 +578,273 @@
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc234/tasks/abc234_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc064/tasks/abc064_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc065/tasks/abc065_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc066/tasks/abc066_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc067/tasks/abc067_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc068/tasks/abc068_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc069/tasks/abc069_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc070/tasks/abc070_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc071/tasks/abc071_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc072/tasks/abc072_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc073/tasks/abc073_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc074/tasks/abc074_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc075/tasks/abc075_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc076/tasks/abc076_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc077/tasks/abc077_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc078/tasks/abc078_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc079/tasks/abc079_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc080/tasks/abc080_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc081/tasks/abc081_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc082/tasks/abc082_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc083/tasks/abc083_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc084/tasks/abc084_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc117/tasks/abc117_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc118/tasks/abc118_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc119/tasks/abc119_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc120/tasks/abc120_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc121/tasks/abc121_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc122/tasks/abc122_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc123/tasks/abc123_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc124/tasks/abc124_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc125/tasks/abc125_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc126/tasks/abc126_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc127/tasks/abc127_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc128/tasks/abc128_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc129/tasks/abc129_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc130/tasks/abc130_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc131/tasks/abc131_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc132/tasks/abc132_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc133/tasks/abc133_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc134/tasks/abc134_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc135/tasks/abc135_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc136/tasks/abc136_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc137/tasks/abc137_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc138/tasks/abc138_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc139/tasks/abc139_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc140/tasks/abc140_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc141/tasks/abc141_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc142/tasks/abc142_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc143/tasks/abc143_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc144/tasks/abc144_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc145/tasks/abc145_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc146/tasks/abc146_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc147/tasks/abc147_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc148/tasks/abc148_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc149/tasks/abc149_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc187/tasks/abc187_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc188/tasks/abc188_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc189/tasks/abc189_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc190/tasks/abc190_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc191/tasks/abc191_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc192/tasks/abc192_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc194/tasks/abc194_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc196/tasks/abc196_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc197/tasks/abc197_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc198/tasks/abc198_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc199/tasks/abc199_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc203/tasks/abc203_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc204/tasks/abc204_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc205/tasks/abc205_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc206/tasks/abc206_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc207/tasks/abc207_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc208/tasks/abc208_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc209/tasks/abc209_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc210/tasks/abc210_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc211/tasks/abc211_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc212/tasks/abc212_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc213/tasks/abc213_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc214/tasks/abc214_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc215/tasks/abc215_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc216/tasks/abc216_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc217/tasks/abc217_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc218/tasks/abc218_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc220/tasks/abc220_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc221/tasks/abc221_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc223/tasks/abc223_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc224/tasks/abc224_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc226/tasks/abc226_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc230/tasks/abc230_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc233/tasks/abc233_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc234/tasks/abc234_b</t>
   </si>
 </sst>
 </file>
@@ -724,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -774,12 +1041,354 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="111">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1497,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1542,7 +2151,7 @@
       <c r="A2" s="18"/>
       <c r="B2" s="3">
         <f>COUNTA(B3:B771)</f>
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="C2" s="7" t="e">
         <f t="shared" ref="C2:H2" si="0">AVERAGE(C3:C59)</f>
@@ -3053,182 +3662,1497 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="8">
-        <f t="shared" ref="H91" si="6">SUM(C91:G91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A94" s="16"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A95" s="16"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A96" s="16"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A97" s="16"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="8"/>
-    </row>
-    <row r="98" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A98" s="16"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="8"/>
-    </row>
-    <row r="99" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A99" s="16"/>
+        <f t="shared" ref="H91:H154" si="6">SUM(C91:G91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="8"/>
-    </row>
-    <row r="100" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A100" s="16"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="8"/>
-    </row>
-    <row r="101" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A101" s="16"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="8"/>
-    </row>
-    <row r="103" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A103" s="16"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="8"/>
-    </row>
-    <row r="104" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="16"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="8"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="8"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="8"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H99" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
-      <c r="H107" s="8"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="8"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="8"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H112" s="8"/>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H113" s="8"/>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H114" s="8"/>
+      <c r="H107" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H134" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H135" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="H136" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H137" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H138" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="20">
+        <f t="shared" ref="H155:H180" si="7">SUM(C155:G155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3236,316 +5160,526 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B1 A3:A12 B3:B23 A24:B28 B57:B79">
-    <cfRule type="cellIs" dxfId="62" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="283" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A72">
-    <cfRule type="cellIs" dxfId="61" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A72">
-    <cfRule type="cellIs" dxfId="60" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A89">
-    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="117" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A36">
-    <cfRule type="cellIs" dxfId="58" priority="99" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:A1048576">
-    <cfRule type="cellIs" dxfId="57" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="147" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181:A1048576">
+    <cfRule type="cellIs" dxfId="105" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A23">
-    <cfRule type="cellIs" dxfId="56" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="157" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="55" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="167" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A12">
-    <cfRule type="cellIs" dxfId="54" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A12">
-    <cfRule type="cellIs" dxfId="53" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="161" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A23">
-    <cfRule type="cellIs" dxfId="52" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A20">
-    <cfRule type="cellIs" dxfId="51" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="159" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A28">
-    <cfRule type="cellIs" dxfId="50" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A44">
-    <cfRule type="cellIs" dxfId="49" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="cellIs" dxfId="48" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A44">
-    <cfRule type="cellIs" dxfId="47" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A56">
-    <cfRule type="cellIs" dxfId="46" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A52">
-    <cfRule type="cellIs" dxfId="45" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A56">
-    <cfRule type="cellIs" dxfId="44" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="141" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A72">
-    <cfRule type="cellIs" dxfId="43" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A64">
-    <cfRule type="cellIs" dxfId="42" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="131" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A79">
-    <cfRule type="cellIs" dxfId="41" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A79">
-    <cfRule type="cellIs" dxfId="40" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A104">
-    <cfRule type="cellIs" dxfId="39" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:A104">
-    <cfRule type="cellIs" dxfId="38" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A104">
-    <cfRule type="cellIs" dxfId="37" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A96">
-    <cfRule type="cellIs" dxfId="36" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A89">
-    <cfRule type="cellIs" dxfId="35" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B56 B5:B13 B15:B23 B80:B89">
-    <cfRule type="cellIs" dxfId="34" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="116" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B89">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B92">
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A101 B92:B112 A113:B117 B146:B168">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:A161">
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:A161">
+    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:A125">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:A112">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:A101">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:A101">
+    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A112">
+    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A109">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115:A117">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:A133">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131:A133">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A133">
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:A145">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:A141">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142:A145">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146:A161">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146:A153">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:A168">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:A168">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B140:B145 B94:B102 B104:B112">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B146">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B147">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B149">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B150">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B154">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B165">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B166">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B92">
+  <conditionalFormatting sqref="B168">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="A169:A180">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:A180">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B169:B180">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B169:B180">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -3553,8 +5687,9 @@
   <hyperlinks>
     <hyperlink ref="B91" r:id="rId1" xr:uid="{66F78A56-B54B-4433-8E80-FC5939FB890D}"/>
     <hyperlink ref="B90" r:id="rId2" xr:uid="{C3598CEF-4A15-4E42-9F17-40951A2EFB57}"/>
+    <hyperlink ref="B139" r:id="rId3" xr:uid="{9CDE5159-9B6C-4C86-89E9-7FB409063555}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/level-2/atcoder/phase-2-2/atcoder-phase-2-2.xlsx
+++ b/level-2/atcoder/phase-2-2/atcoder-phase-2-2.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3AB12-B66F-4D04-B2BC-FF8A044073DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D883F36F-A3C2-40F3-A344-2DEE402F5466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="atcoder level 2.2" sheetId="1" r:id="rId1"/>
+    <sheet name="atcoder 2.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -991,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1008,10 +1019,7 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1032,7 +1040,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,53 +1049,12 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="106">
     <dxf>
       <fill>
         <patternFill>
@@ -2116,39 +2083,39 @@
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="61" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="15" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="3">
         <f>COUNTA(B3:B771)</f>
         <v>178</v>
@@ -2179,7 +2146,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2196,7 +2163,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2213,7 +2180,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2230,7 +2197,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2247,7 +2214,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2264,7 +2231,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2281,7 +2248,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2298,7 +2265,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2315,7 +2282,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2332,24 +2299,24 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2366,7 +2333,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2383,7 +2350,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2400,7 +2367,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2417,24 +2384,24 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2451,7 +2418,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2468,7 +2435,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2485,24 +2452,24 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2519,7 +2486,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2536,7 +2503,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2553,7 +2520,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2570,24 +2537,24 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2604,7 +2571,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2621,10 +2588,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="9"/>
@@ -2638,10 +2605,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>122</v>
       </c>
       <c r="C30" s="9"/>
@@ -2655,10 +2622,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="9"/>
@@ -2672,10 +2639,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C32" s="9"/>
@@ -2689,10 +2656,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C33" s="9"/>
@@ -2706,27 +2673,27 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>127</v>
       </c>
       <c r="C35" s="9"/>
@@ -2740,10 +2707,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>128</v>
       </c>
       <c r="C36" s="9"/>
@@ -2757,10 +2724,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>129</v>
       </c>
       <c r="C37" s="9"/>
@@ -2774,10 +2741,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="9"/>
@@ -2791,10 +2758,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>131</v>
       </c>
       <c r="C39" s="9"/>
@@ -2808,10 +2775,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C40" s="9"/>
@@ -2825,10 +2792,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>133</v>
       </c>
       <c r="C41" s="9"/>
@@ -2842,27 +2809,27 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>135</v>
       </c>
       <c r="C43" s="9"/>
@@ -2876,10 +2843,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="9"/>
@@ -2893,10 +2860,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>137</v>
       </c>
       <c r="H45" s="8">
@@ -2905,10 +2872,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H46" s="8">
@@ -2917,10 +2884,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>139</v>
       </c>
       <c r="H47" s="8">
@@ -2929,10 +2896,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>140</v>
       </c>
       <c r="H48" s="8">
@@ -2941,10 +2908,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>141</v>
       </c>
       <c r="H49" s="8">
@@ -2953,7 +2920,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -2970,7 +2937,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2987,7 +2954,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3004,7 +2971,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -3021,7 +2988,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3038,7 +3005,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3055,7 +3022,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3072,7 +3039,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3089,24 +3056,24 @@
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3123,7 +3090,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3140,24 +3107,24 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3174,7 +3141,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3191,24 +3158,24 @@
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3225,7 +3192,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -3242,92 +3209,92 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3344,7 +3311,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3361,7 +3328,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3378,24 +3345,24 @@
       </c>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3412,7 +3379,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3429,7 +3396,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3446,7 +3413,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3463,7 +3430,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3480,24 +3447,24 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
       <c r="H81" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3514,7 +3481,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3531,41 +3498,41 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
       <c r="H84" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
       <c r="H85" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -3582,7 +3549,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -3599,7 +3566,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -3616,7 +3583,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -3633,7 +3600,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -3650,7 +3617,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3667,1489 +3634,1489 @@
       </c>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="20">
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="20">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="20">
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="20">
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="20">
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="20">
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="20">
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="20">
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="20">
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="20">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="20">
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="20">
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="20">
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="20">
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="20">
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="20">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="20">
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="20">
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="20">
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="20">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="20">
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="20">
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="20">
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="20">
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="20">
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="20">
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="20">
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="20">
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="20">
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="20">
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="20">
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="20">
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="20">
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="20">
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="20">
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="20">
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="20">
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="20">
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="19" t="s">
+      <c r="A130" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="20">
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="20">
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="20">
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="20">
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="19" t="s">
+      <c r="A134" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H134" s="20">
+      <c r="H134" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="H135" s="20">
+      <c r="H135" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="H136" s="20">
+      <c r="H136" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H137" s="20">
+      <c r="H137" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="H138" s="20">
+      <c r="H138" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="20">
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="20">
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="20">
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="20">
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="19" t="s">
+      <c r="A144" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="20">
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="19" t="s">
+      <c r="A145" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="20">
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="20">
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="20">
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="19" t="s">
+      <c r="A148" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="20">
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="19" t="s">
+      <c r="A149" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="20">
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="20">
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="19" t="s">
+      <c r="A151" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="20">
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="20">
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="20">
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="20">
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="19" t="s">
+      <c r="A155" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="20">
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="8">
         <f t="shared" ref="H155:H180" si="7">SUM(C155:G155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="20">
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="19" t="s">
+      <c r="A157" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="20">
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="19" t="s">
+      <c r="A158" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="20">
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="19" t="s">
+      <c r="A159" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="20">
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="19" t="s">
+      <c r="A160" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="20">
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="19" t="s">
+      <c r="A161" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="20">
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="19" t="s">
+      <c r="A162" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="20">
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="19" t="s">
+      <c r="A163" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="20">
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="19" t="s">
+      <c r="A164" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="20">
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="19" t="s">
+      <c r="A165" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="20">
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="19" t="s">
+      <c r="A166" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="20">
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="20">
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="19" t="s">
+      <c r="A168" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="20">
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="19" t="s">
+      <c r="A169" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="20">
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="19" t="s">
+      <c r="A170" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="20">
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-      <c r="H171" s="20">
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="19" t="s">
+      <c r="A172" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="20">
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="19" t="s">
+      <c r="A173" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="20">
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="19" t="s">
+      <c r="A174" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="20">
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="19" t="s">
+      <c r="A175" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-      <c r="H175" s="20">
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="19" t="s">
+      <c r="A176" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="20">
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="20">
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="19" t="s">
+      <c r="A178" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-      <c r="H178" s="20">
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="20">
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="19" t="s">
+      <c r="A180" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="20">
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5159,528 +5126,8 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B1 A3:A12 B3:B23 A24:B28 B57:B79">
-    <cfRule type="cellIs" dxfId="110" priority="283" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A72">
-    <cfRule type="cellIs" dxfId="109" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A72">
-    <cfRule type="cellIs" dxfId="108" priority="129" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A89">
-    <cfRule type="cellIs" dxfId="107" priority="117" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A36">
-    <cfRule type="cellIs" dxfId="106" priority="147" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A181:A1048576">
     <cfRule type="cellIs" dxfId="105" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A23">
-    <cfRule type="cellIs" dxfId="104" priority="157" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="103" priority="167" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A12">
-    <cfRule type="cellIs" dxfId="102" priority="162" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A12">
-    <cfRule type="cellIs" dxfId="101" priority="161" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A23">
-    <cfRule type="cellIs" dxfId="100" priority="160" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A20">
-    <cfRule type="cellIs" dxfId="99" priority="159" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A28">
-    <cfRule type="cellIs" dxfId="98" priority="150" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A44">
-    <cfRule type="cellIs" dxfId="97" priority="148" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A44">
-    <cfRule type="cellIs" dxfId="96" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A44">
-    <cfRule type="cellIs" dxfId="95" priority="145" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A56">
-    <cfRule type="cellIs" dxfId="94" priority="144" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A52">
-    <cfRule type="cellIs" dxfId="93" priority="143" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A56">
-    <cfRule type="cellIs" dxfId="92" priority="141" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A72">
-    <cfRule type="cellIs" dxfId="91" priority="132" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A64">
-    <cfRule type="cellIs" dxfId="90" priority="131" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A79">
-    <cfRule type="cellIs" dxfId="89" priority="128" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A79">
-    <cfRule type="cellIs" dxfId="88" priority="127" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A89">
-    <cfRule type="cellIs" dxfId="83" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B56 B5:B13 B15:B23 B80:B89">
-    <cfRule type="cellIs" dxfId="82" priority="116" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="81" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="80" priority="93" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="79" priority="92" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="77" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="76" priority="89" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="75" priority="88" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="73" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="72" priority="85" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="71" priority="84" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="70" priority="83" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="69" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="68" priority="81" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="67" priority="80" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="64" priority="77" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="62" priority="75" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="61" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="60" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="59" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B89">
-    <cfRule type="cellIs" dxfId="58" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:A101 B92:B112 A113:B117 B146:B168">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:A161">
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:A161">
-    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:A125">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110:A112">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:A101">
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:A101">
-    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A112">
-    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A109">
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115:A117">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:A133">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:A133">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:A133">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:A145">
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:A141">
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142:A145">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146:A161">
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146:A153">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:A168">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:A168">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B140:B145 B94:B102 B104:B112">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B149">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B150">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B154">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B165">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B166">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B168">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:A180">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:A180">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B169:B180">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B169:B180">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
